--- a/tests/indicators/a-d/Beta/Beta.Calc.xlsx
+++ b/tests/indicators/a-d/Beta/Beta.Calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AC75F-A52F-43F5-875B-AE4793B4C321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC3E6FA-2EA6-4017-8DE8-18592C3D66F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,13 +730,13 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2691,10 +2691,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E415D77D-FA75-460C-91D1-868273981957}" name="Table3" displayName="Table3" ref="A1:B61" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E415D77D-FA75-460C-91D1-868273981957}" name="Table3" displayName="Table3" ref="A1:B61" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F7EBEF86-667F-4557-B6A7-307887210D3E}" name="date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{AB4A69C3-D63F-4024-951F-8EB4D0752E5D}" name="beta" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F7EBEF86-667F-4557-B6A7-307887210D3E}" name="date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AB4A69C3-D63F-4024-951F-8EB4D0752E5D}" name="beta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3001,7 +3001,7 @@
   <dimension ref="A1:AB503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
